--- a/Excel/Conditional Formatting Excel Tutorial File.xlsx
+++ b/Excel/Conditional Formatting Excel Tutorial File.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/579481080490e445/Documents/Excel Series Excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/new/Downloads/Tutorials/Data Analyst Bootcamp/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE12AABD-2C2A-4D60-B298-E861FD33474F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E73EDB-B271-6D48-A0E5-CF1268DD34D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
+    <workbookView xWindow="36000" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
@@ -333,7 +333,188 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -646,25 +827,25 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="40.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -699,7 +880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -734,7 +915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -769,7 +950,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -804,7 +985,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -839,7 +1020,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -874,7 +1055,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -909,7 +1090,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -944,7 +1125,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -979,7 +1160,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1014,19 +1195,24 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D22" t="str">
         <f t="shared" ref="D22:D23" si="0">CONCATENATE(B12," ",C12)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="gmail">
+      <formula>NOT(ISERROR(SEARCH("gmail",K1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1036,15 +1222,15 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>72</v>
       </c>
@@ -1082,7 +1268,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -1123,7 +1309,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -1164,7 +1350,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -1206,6 +1392,42 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:M2">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:M3">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:M4">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Flags">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="5Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel/Conditional Formatting Excel Tutorial File.xlsx
+++ b/Excel/Conditional Formatting Excel Tutorial File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/new/Downloads/Tutorials/Data Analyst Bootcamp/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E73EDB-B271-6D48-A0E5-CF1268DD34D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EF06C3-2B06-6049-B588-583F96980124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36000" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
   </bookViews>
@@ -333,37 +333,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -376,21 +346,51 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -431,6 +431,66 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -827,7 +887,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1209,8 +1269,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="gmail">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="gmail">
       <formula>NOT(ISERROR(SEARCH("gmail",K1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H10">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>H2:H10&gt;50000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E10">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>E2:E10&gt;30</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Conditional Formatting Excel Tutorial File.xlsx
+++ b/Excel/Conditional Formatting Excel Tutorial File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/new/Downloads/Tutorials/Data Analyst Bootcamp/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EF06C3-2B06-6049-B588-583F96980124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6DAD07-C73B-6144-A543-C222F44CBDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36000" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
   </bookViews>
